--- a/database/customers.xlsx
+++ b/database/customers.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="A1:C5"/>
@@ -554,6 +554,30 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
